--- a/SuppXLS/Scen_NEMSLearning-2050.xlsx
+++ b/SuppXLS/Scen_NEMSLearning-2050.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IEMM\IEMM_MIG\IEMM_VEDA_MIG_Template\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda_models\IEMM_v60_10-1-master\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1937A2F9-C80C-4DBD-AE88-885A39A1EBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DE5B6-F468-4E05-8983-1C5E652958C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
     <sheet name="INS" sheetId="2" r:id="rId2"/>
     <sheet name="NEMS learning" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -417,7 +419,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -437,7 +439,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -761,7 +763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="256" width="11.42578125" customWidth="1"/>
   </cols>
@@ -806,10 +808,10 @@
   <dimension ref="B2:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -2411,7 +2413,7 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -4932,16 +4934,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>